--- a/01-CodigoFuente/main/Spooler/main/main/bin/Debug/net8.0/spread_gsk_pedimientos.xlsx
+++ b/01-CodigoFuente/main/Spooler/main/main/bin/Debug/net8.0/spread_gsk_pedimientos.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Shipments" sheetId="1" r:id="R13be5245b21547cb"/>
+    <x:sheet name="Shipments" sheetId="1" r:id="R4d8e3c4987244272"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <x:si>
     <x:t>SHIPMENT_NO</x:t>
   </x:si>
@@ -56,7 +56,7 @@
     <x:t>CREATION_DATE</x:t>
   </x:si>
   <x:si>
-    <x:t>2123977910</x:t>
+    <x:t>2123944330</x:t>
   </x:si>
   <x:si>
     <x:t>Glaxosmithkline Consumer Healthcare Mexico Sa De Cv</x:t>
@@ -68,118 +68,226 @@
     <x:t>Ciudad De Mexico (Ciudad De Mexico)</x:t>
   </x:si>
   <x:si>
+    <x:t>Costco De Mexico Sa De Cv Costco De Mexico Sa De Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avenida Central  3 Manzana 84  Lote 1  Parque Industrial Tepeji C.P. 42884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tepeji Del Rio De Ocampo (Hidalgo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26E4B8A2B15E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/11/2024 00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123944332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4B151AC60DAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123959649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BA61A3EE429A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123959650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5AA028C900AB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123972295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8AB6ED58C07C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123972457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9525BCE043F1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123972461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D770A36BF802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calzada Mexico Xochimilco  4900    San Lorenzo Huipulco C.P. 14370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nueva Wal Mart De Mexico Nueva Wal Mart De Mexico Sams Centro De Distribucion San Martin Obispo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avenida Tejocotes Km 2  S/N    San Martín Obispo C.P. 54769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cuautitlan Izcalli (Estado De Mexico (2))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0EE5245690E5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7E00C5C990F8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E8457779178D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5714692991A0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casa Marzam Sa De Cv Casa Marzam Sa De Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boulevard Federico Benitez  15212  3  El Pedregal C.P. 22104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tijuana (Baja California)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>571107268D52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Instituto De Seguridad Social Del Estado De Guanajuato Instituto De Seguridad Social Del Estado De Guanajuato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Circuito Mexiamora Norte  Manzana 1  Lote 48 Al 58  Puerto Interior C.P. 36275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silao (Guanajuato)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111B76BDF2E1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A56DD90D8F4B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40D72DF76508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CA70D3DD3FD0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0BA9D24D8E2D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5DDDE8133E1D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rodriguez Distribuciones Sa De Cv Rodriguez Distribuciones Sa De Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plutarco Elias Calles  282    Rinconada San Andres C.P. 44755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guadalajara (Jalisco)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85EB44A73327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D8992076435B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123977841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>864006D9A25C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985553</x:t>
+  </x:si>
+  <x:si>
     <x:t>Farmacia Guadalajara Sa De Cv (Fragua) Farmacia Guadalajara Sa De Cv</x:t>
   </x:si>
   <x:si>
+    <x:t>Carretera A Villa De Tezontepec Km 1 Y Km 1+500  1 Manzana 1  A  Villa De Tezontepec Centro C.P. 43880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Villa De Tezontepec(1) (Hidalgo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7B0DC96B0328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985565</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Distribuidora Dekafarma Sa De Cv Distribuidora Dekafarma Sa De Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calle 62 Diagonal  507    Real Montejo C.P. 97302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Merida (Yucatan)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>939A14E2F88F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985571</x:t>
+  </x:si>
+  <x:si>
     <x:t>Autopista Guadalajara A Zapotlanejo Km 17  S/N    El Moral C.P. 45417</x:t>
   </x:si>
   <x:si>
     <x:t>Tonala (Jalisco)</x:t>
   </x:si>
   <x:si>
-    <x:t>Road</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9864F538E587</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/10/2024 00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EC60773EFA42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8607CA2C1626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977923</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calzada Mexico Xochimilco  4900    San Lorenzo Huipulco C.P. 14370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carretera A Villa De Tezontepec Km 1 Y Km 1+500  1 Manzana 1  A  Villa De Tezontepec Centro C.P. 43880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Villa De Tezontepec(1) (Hidalgo)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41C1B90B6B54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0F1FC71281D5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0FE446C3EC96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977928</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A2D2C85B1758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977929</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5C58C488C209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977942</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CCE0F3EAB2E9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977943</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F8307F48B8EF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E065CEAC08B0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>900AB65BDD72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977946</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3E390CB39A27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00639DDA5D06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4AEE3B330095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977949</x:t>
+    <x:t>B006A55A0648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985575</x:t>
   </x:si>
   <x:si>
     <x:t>Farmacia Guadalajara Sa De Cv (Fragua) Farmacia Guadalajara Sa De Cv (Fragua) Cedis</x:t>
@@ -191,25 +299,286 @@
     <x:t>Garcia (Nuevo Leon)</x:t>
   </x:si>
   <x:si>
-    <x:t>D90D039AC88F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B55615E2DE4B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BF77EC53DCA3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2123977953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87F0F754AFD0</x:t>
+    <x:t>44993FB9FD9A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiendas Soriana Sa De Cv Cedis Soriana Tultitlan 5548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avenida Mexiquense  6    Los Portales C.P. 54910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tultitlan (Estado De Mexico (2))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B1A54DDECD82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiendas Soriana Sa De Cv Cedis Soriana Queretaro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Autopista Mexico Queretaro Km 186 Entronque El Ahorcado  S/N    Independencia C.P. 76700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pedro Escobedo (Queretaro)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20BCC9B05451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EEC8794EF0DE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123985600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509EAC3CD6DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123986523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nueva Wal Mart De Mexico Nueva Wal Mart De Mexico 7471 Wdc Chalco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carretera Federal Cuautla Mexico Km 42.5  7471    San Gregorio Cuautzingo C.P. 56640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chalco (Estado De Mexico)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B07BD1AC4F1C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nueva Wal Mart De Mexico Wal Mart Centro De Distribucion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avenida De La Luz  50  Nave 1 Y 2  Parque Industrial La Luz C.P. 54716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6954B8F93079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nueva Wal Mart De Mexico Walmart Cedis Egls Megapark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avenida 2 De Noviembre  S/N  Nave 10  Las Animas C.P. 54616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tepotzotlan (Estado De Mexico (2))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95258AC4BB20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE8C0542FA77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8301882CBE4F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5F430C7619AA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>693096C7D5C5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9A29D06D2B32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A00D950D5FC4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>996E554B836A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7D8EF4171DE2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E172A405DC8D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>789DCF101C89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0A7C2AF78A35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44E7ECBA5A8E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glaxosmithkline Mexico Sa De Cv Glaxosmithkline Mexico Sa De Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calle 21 Este  104    Civac C.P. 62578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jiutepec (Morelos)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8C6E5A04838A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28E36EF94FDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B67F391FF9FD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2DD232B9308B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59774CB422CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B083C4E90778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722DAD5DAF31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0FF044EFBFC9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E4A348434CAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>995B6310C883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987665</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1D4610812F9F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Representaciones Jmp Sa De Cv Representaciones Jmp Sa De Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel Gomez Morin  80    Jardines De Santa Isabel C.P. 44300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>006C1DF9706A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2BEC16F97692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D38CF5D0B488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E21E2CA0BD06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CBC6148195AA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>469091E70B62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2123987857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72382BB662AD</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -576,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:N20"/>
+  <x:dimension ref="A1:N63"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -593,9 +962,9 @@
     <x:col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
     <x:col min="7" max="7" width="61.28515625" bestFit="1" customWidth="1"/>
     <x:col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="98.7109375" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="105.7109375" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <x:col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
     <x:col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -652,7 +1021,7 @@
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E2" s="2"/>
       <x:c r="F2" s="2" t="s">
@@ -690,7 +1059,7 @@
       <x:c r="B3" s="2"/>
       <x:c r="C3" s="2"/>
       <x:c r="D3" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E3" s="2"/>
       <x:c r="F3" s="2" t="s">
@@ -728,7 +1097,7 @@
       <x:c r="B4" s="2"/>
       <x:c r="C4" s="2"/>
       <x:c r="D4" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E4" s="2"/>
       <x:c r="F4" s="2" t="s">
@@ -766,14 +1135,14 @@
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2"/>
       <x:c r="D5" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E5" s="2"/>
       <x:c r="F5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>17</x:v>
@@ -782,16 +1151,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
         <x:v>23</x:v>
@@ -799,19 +1168,19 @@
     </x:row>
     <x:row r="6">
       <x:c r="A6" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B6" s="2"/>
       <x:c r="C6" s="2"/>
       <x:c r="D6" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E6" s="2"/>
       <x:c r="F6" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
         <x:v>17</x:v>
@@ -820,16 +1189,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="J6" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L6" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M6" s="2" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="L6" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="M6" s="2" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="N6" s="2" t="s">
         <x:v>23</x:v>
@@ -837,19 +1206,19 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="2"/>
       <x:c r="C7" s="2"/>
       <x:c r="D7" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E7" s="2"/>
       <x:c r="F7" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
         <x:v>17</x:v>
@@ -858,16 +1227,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="J7" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N7" s="2" t="s">
         <x:v>23</x:v>
@@ -875,19 +1244,19 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="2"/>
       <x:c r="C8" s="2"/>
       <x:c r="D8" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E8" s="2"/>
       <x:c r="F8" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
         <x:v>17</x:v>
@@ -896,16 +1265,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N8" s="2" t="s">
         <x:v>23</x:v>
@@ -913,37 +1282,37 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B9" s="2"/>
       <x:c r="C9" s="2"/>
       <x:c r="D9" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E9" s="2"/>
       <x:c r="F9" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I9" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J9" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N9" s="2" t="s">
         <x:v>23</x:v>
@@ -951,12 +1320,12 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B10" s="2"/>
       <x:c r="C10" s="2"/>
       <x:c r="D10" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E10" s="2"/>
       <x:c r="F10" s="2" t="s">
@@ -981,7 +1350,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N10" s="2" t="s">
         <x:v>23</x:v>
@@ -989,12 +1358,12 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B11" s="2"/>
       <x:c r="C11" s="2"/>
       <x:c r="D11" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E11" s="2"/>
       <x:c r="F11" s="2" t="s">
@@ -1019,7 +1388,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N11" s="2" t="s">
         <x:v>23</x:v>
@@ -1027,12 +1396,12 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B12" s="2"/>
       <x:c r="C12" s="2"/>
       <x:c r="D12" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E12" s="2"/>
       <x:c r="F12" s="2" t="s">
@@ -1057,7 +1426,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="M12" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N12" s="2" t="s">
         <x:v>23</x:v>
@@ -1065,12 +1434,12 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B13" s="2"/>
       <x:c r="C13" s="2"/>
       <x:c r="D13" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E13" s="2"/>
       <x:c r="F13" s="2" t="s">
@@ -1083,19 +1452,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J13" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K13" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L13" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M13" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N13" s="2" t="s">
         <x:v>23</x:v>
@@ -1103,37 +1472,37 @@
     </x:row>
     <x:row r="14">
       <x:c r="A14" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B14" s="2"/>
       <x:c r="C14" s="2"/>
       <x:c r="D14" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E14" s="2"/>
       <x:c r="F14" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H14" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I14" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J14" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K14" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L14" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M14" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N14" s="2" t="s">
         <x:v>23</x:v>
@@ -1141,37 +1510,37 @@
     </x:row>
     <x:row r="15">
       <x:c r="A15" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B15" s="2"/>
       <x:c r="C15" s="2"/>
       <x:c r="D15" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E15" s="2"/>
       <x:c r="F15" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G15" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J15" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K15" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M15" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="N15" s="2" t="s">
         <x:v>23</x:v>
@@ -1179,37 +1548,37 @@
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="2"/>
       <x:c r="C16" s="2"/>
       <x:c r="D16" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E16" s="2"/>
       <x:c r="F16" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M16" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N16" s="2" t="s">
         <x:v>23</x:v>
@@ -1217,12 +1586,12 @@
     </x:row>
     <x:row r="17">
       <x:c r="A17" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B17" s="2"/>
       <x:c r="C17" s="2"/>
       <x:c r="D17" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E17" s="2"/>
       <x:c r="F17" s="2" t="s">
@@ -1235,19 +1604,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J17" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K17" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L17" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M17" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N17" s="2" t="s">
         <x:v>23</x:v>
@@ -1255,12 +1624,12 @@
     </x:row>
     <x:row r="18">
       <x:c r="A18" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B18" s="2"/>
       <x:c r="C18" s="2"/>
       <x:c r="D18" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E18" s="2"/>
       <x:c r="F18" s="2" t="s">
@@ -1273,19 +1642,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K18" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L18" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M18" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N18" s="2" t="s">
         <x:v>23</x:v>
@@ -1293,12 +1662,12 @@
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B19" s="2"/>
       <x:c r="C19" s="2"/>
       <x:c r="D19" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E19" s="2"/>
       <x:c r="F19" s="2" t="s">
@@ -1311,19 +1680,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L19" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M19" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N19" s="2" t="s">
         <x:v>23</x:v>
@@ -1331,12 +1700,12 @@
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B20" s="2"/>
       <x:c r="C20" s="2"/>
       <x:c r="D20" s="2">
-        <x:v>45453</x:v>
+        <x:v>45454</x:v>
       </x:c>
       <x:c r="E20" s="2"/>
       <x:c r="F20" s="2" t="s">
@@ -1349,21 +1718,1655 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N20" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B21" s="2"/>
+      <x:c r="C21" s="2"/>
+      <x:c r="D21" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E21" s="2"/>
+      <x:c r="F21" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G21" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H21" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J21" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K21" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L21" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M21" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N21" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B22" s="2"/>
+      <x:c r="C22" s="2"/>
+      <x:c r="D22" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E22" s="2"/>
+      <x:c r="F22" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J22" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K22" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L22" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M22" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N22" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B23" s="2"/>
+      <x:c r="C23" s="2"/>
+      <x:c r="D23" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E23" s="2"/>
+      <x:c r="F23" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G23" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H23" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I23" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J23" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="K23" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L23" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M23" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N23" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B24" s="2"/>
+      <x:c r="C24" s="2"/>
+      <x:c r="D24" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E24" s="2"/>
+      <x:c r="F24" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G24" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H24" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I24" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="J24" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="K24" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="L24" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M24" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="N24" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B25" s="2"/>
+      <x:c r="C25" s="2"/>
+      <x:c r="D25" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E25" s="2"/>
+      <x:c r="F25" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G25" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H25" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I25" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J25" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K25" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L25" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M25" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="N25" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B26" s="2"/>
+      <x:c r="C26" s="2"/>
+      <x:c r="D26" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E26" s="2"/>
+      <x:c r="F26" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G26" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H26" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I26" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J26" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K26" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="L26" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M26" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N26" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B27" s="2"/>
+      <x:c r="C27" s="2"/>
+      <x:c r="D27" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E27" s="2"/>
+      <x:c r="F27" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G27" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H27" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I27" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="J27" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="K27" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="L27" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M27" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="N27" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B28" s="2"/>
+      <x:c r="C28" s="2"/>
+      <x:c r="D28" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E28" s="2"/>
+      <x:c r="F28" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G28" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H28" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I28" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="J28" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K28" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="L28" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M28" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="N28" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B29" s="2"/>
+      <x:c r="C29" s="2"/>
+      <x:c r="D29" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E29" s="2"/>
+      <x:c r="F29" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G29" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H29" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I29" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="J29" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="K29" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="L29" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M29" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="N29" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B30" s="2"/>
+      <x:c r="C30" s="2"/>
+      <x:c r="D30" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E30" s="2"/>
+      <x:c r="F30" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G30" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H30" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I30" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="J30" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K30" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="L30" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M30" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="N30" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B31" s="2"/>
+      <x:c r="C31" s="2"/>
+      <x:c r="D31" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E31" s="2"/>
+      <x:c r="F31" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G31" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H31" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I31" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J31" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K31" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L31" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M31" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="N31" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B32" s="2"/>
+      <x:c r="C32" s="2"/>
+      <x:c r="D32" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E32" s="2"/>
+      <x:c r="F32" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G32" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H32" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I32" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J32" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K32" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L32" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M32" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="N32" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B33" s="2"/>
+      <x:c r="C33" s="2"/>
+      <x:c r="D33" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E33" s="2"/>
+      <x:c r="F33" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G33" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H33" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I33" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="J33" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="K33" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="L33" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M33" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="N33" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B34" s="2"/>
+      <x:c r="C34" s="2"/>
+      <x:c r="D34" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E34" s="2"/>
+      <x:c r="F34" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G34" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H34" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I34" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J34" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K34" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L34" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M34" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="N34" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B35" s="2"/>
+      <x:c r="C35" s="2"/>
+      <x:c r="D35" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E35" s="2"/>
+      <x:c r="F35" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G35" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H35" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I35" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J35" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K35" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L35" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M35" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="N35" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B36" s="2"/>
+      <x:c r="C36" s="2"/>
+      <x:c r="D36" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E36" s="2"/>
+      <x:c r="F36" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G36" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H36" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I36" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J36" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K36" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L36" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M36" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="N36" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B37" s="2"/>
+      <x:c r="C37" s="2"/>
+      <x:c r="D37" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E37" s="2"/>
+      <x:c r="F37" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G37" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H37" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I37" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J37" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K37" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L37" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M37" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="N37" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B38" s="2"/>
+      <x:c r="C38" s="2"/>
+      <x:c r="D38" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E38" s="2"/>
+      <x:c r="F38" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G38" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H38" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I38" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J38" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K38" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L38" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M38" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="N38" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B39" s="2"/>
+      <x:c r="C39" s="2"/>
+      <x:c r="D39" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E39" s="2"/>
+      <x:c r="F39" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G39" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H39" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K39" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L39" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M39" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="N39" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B40" s="2"/>
+      <x:c r="C40" s="2"/>
+      <x:c r="D40" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E40" s="2"/>
+      <x:c r="F40" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G40" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H40" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K40" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L40" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M40" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="N40" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B41" s="2"/>
+      <x:c r="C41" s="2"/>
+      <x:c r="D41" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E41" s="2"/>
+      <x:c r="F41" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G41" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H41" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I41" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J41" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K41" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L41" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M41" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="N41" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B42" s="2"/>
+      <x:c r="C42" s="2"/>
+      <x:c r="D42" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E42" s="2"/>
+      <x:c r="F42" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G42" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H42" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I42" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J42" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K42" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L42" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M42" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="N42" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B43" s="2"/>
+      <x:c r="C43" s="2"/>
+      <x:c r="D43" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E43" s="2"/>
+      <x:c r="F43" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G43" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H43" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I43" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J43" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K43" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L43" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M43" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="N43" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B44" s="2"/>
+      <x:c r="C44" s="2"/>
+      <x:c r="D44" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E44" s="2"/>
+      <x:c r="F44" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G44" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H44" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I44" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J44" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K44" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L44" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M44" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="N44" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B45" s="2"/>
+      <x:c r="C45" s="2"/>
+      <x:c r="D45" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E45" s="2"/>
+      <x:c r="F45" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G45" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H45" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I45" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J45" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K45" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L45" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M45" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="N45" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B46" s="2"/>
+      <x:c r="C46" s="2"/>
+      <x:c r="D46" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E46" s="2"/>
+      <x:c r="F46" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G46" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H46" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I46" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="J46" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="K46" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="L46" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M46" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="N46" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B47" s="2"/>
+      <x:c r="C47" s="2"/>
+      <x:c r="D47" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E47" s="2"/>
+      <x:c r="F47" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G47" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H47" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I47" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J47" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K47" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L47" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M47" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="N47" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B48" s="2"/>
+      <x:c r="C48" s="2"/>
+      <x:c r="D48" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E48" s="2"/>
+      <x:c r="F48" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G48" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H48" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I48" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J48" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K48" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L48" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M48" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="N48" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B49" s="2"/>
+      <x:c r="C49" s="2"/>
+      <x:c r="D49" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E49" s="2"/>
+      <x:c r="F49" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G49" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H49" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I49" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J49" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K49" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L49" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M49" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="N49" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B50" s="2"/>
+      <x:c r="C50" s="2"/>
+      <x:c r="D50" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E50" s="2"/>
+      <x:c r="F50" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G50" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H50" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I50" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J50" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K50" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L50" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M50" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="N50" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B51" s="2"/>
+      <x:c r="C51" s="2"/>
+      <x:c r="D51" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E51" s="2"/>
+      <x:c r="F51" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G51" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H51" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I51" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J51" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K51" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L51" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M51" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="N51" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B52" s="2"/>
+      <x:c r="C52" s="2"/>
+      <x:c r="D52" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E52" s="2"/>
+      <x:c r="F52" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G52" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H52" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I52" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J52" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K52" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L52" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M52" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="N52" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B53" s="2"/>
+      <x:c r="C53" s="2"/>
+      <x:c r="D53" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E53" s="2"/>
+      <x:c r="F53" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G53" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H53" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I53" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J53" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K53" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L53" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M53" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="N53" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B54" s="2"/>
+      <x:c r="C54" s="2"/>
+      <x:c r="D54" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E54" s="2"/>
+      <x:c r="F54" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G54" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H54" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I54" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J54" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K54" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L54" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M54" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="N54" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B55" s="2"/>
+      <x:c r="C55" s="2"/>
+      <x:c r="D55" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E55" s="2"/>
+      <x:c r="F55" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G55" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H55" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I55" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J55" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K55" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L55" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M55" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="N55" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B56" s="2"/>
+      <x:c r="C56" s="2"/>
+      <x:c r="D56" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E56" s="2"/>
+      <x:c r="F56" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G56" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H56" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I56" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J56" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K56" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L56" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M56" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="N56" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B57" s="2"/>
+      <x:c r="C57" s="2"/>
+      <x:c r="D57" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E57" s="2"/>
+      <x:c r="F57" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G57" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H57" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I57" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J57" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K57" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L57" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M57" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="N57" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B58" s="2"/>
+      <x:c r="C58" s="2"/>
+      <x:c r="D58" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E58" s="2"/>
+      <x:c r="F58" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G58" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H58" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I58" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J58" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K58" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L58" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M58" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="N58" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B59" s="2"/>
+      <x:c r="C59" s="2"/>
+      <x:c r="D59" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E59" s="2"/>
+      <x:c r="F59" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G59" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H59" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I59" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K59" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L59" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M59" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="N59" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B60" s="2"/>
+      <x:c r="C60" s="2"/>
+      <x:c r="D60" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E60" s="2"/>
+      <x:c r="F60" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G60" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H60" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I60" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J60" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K60" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L60" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M60" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="N60" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B61" s="2"/>
+      <x:c r="C61" s="2"/>
+      <x:c r="D61" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E61" s="2"/>
+      <x:c r="F61" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G61" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H61" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I61" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J61" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K61" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L61" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="N61" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B62" s="2"/>
+      <x:c r="C62" s="2"/>
+      <x:c r="D62" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E62" s="2"/>
+      <x:c r="F62" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G62" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H62" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I62" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J62" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K62" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L62" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M62" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="N62" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B63" s="2"/>
+      <x:c r="C63" s="2"/>
+      <x:c r="D63" s="2">
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="E63" s="2"/>
+      <x:c r="F63" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G63" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H63" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I63" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="J63" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="K63" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L63" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M63" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="N63" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>

--- a/01-CodigoFuente/main/Spooler/main/main/bin/Debug/net8.0/spread_gsk_pedimientos.xlsx
+++ b/01-CodigoFuente/main/Spooler/main/main/bin/Debug/net8.0/spread_gsk_pedimientos.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Shipments" sheetId="1" r:id="R4d8e3c4987244272"/>
+    <x:sheet name="Shipments" sheetId="1" r:id="Raf18495416dd476b"/>
   </x:sheets>
 </x:workbook>
 </file>
